--- a/Reports/AreDifferent/decryption_coldWater/decryption_coldWater.xlsx
+++ b/Reports/AreDifferent/decryption_coldWater/decryption_coldWater.xlsx
@@ -911,8 +911,8 @@
   </sheetPr>
   <dimension ref="A1:AE17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:S3"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE12" sqref="AE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1482,6 +1482,9 @@
       <c r="AD12" s="31" t="s">
         <v>20</v>
       </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:31">
       <c r="V13" s="6" t="s">

--- a/Reports/AreDifferent/decryption_coldWater/decryption_coldWater.xlsx
+++ b/Reports/AreDifferent/decryption_coldWater/decryption_coldWater.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="390" windowWidth="28440" windowHeight="12195"/>
+    <workbookView xWindow="825" yWindow="5550" windowWidth="28440" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="108">
   <si>
     <t>тариф</t>
   </si>
@@ -325,15 +325,28 @@
     <t>Объем спр. по норме</t>
   </si>
   <si>
-    <t>Расшифровка начисления по холодному водоснабжению к общему отчёту</t>
+    <t>Главный бухгалтер ООО "ЭнергоКомпания"</t>
+  </si>
+  <si>
+    <t>Т.В. Скворцова</t>
+  </si>
+  <si>
+    <t>И.о. начальника абонентского сектора</t>
+  </si>
+  <si>
+    <t>Долгова Е.В.</t>
+  </si>
+  <si>
+    <t>"Расшифровка начисления по холодному водоснабжению за " .$this-&gt;H['full_name_month']." ".$this-&gt;H['name_organization']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="165" formatCode="#\ ###\ ###\ ##0.00;[Red]\-#\ ###\ ##0.00"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -471,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -593,6 +606,10 @@
     <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -909,10 +926,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AE17"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE12" sqref="AE12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -960,51 +977,51 @@
       </c>
     </row>
     <row r="2" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A2" s="53" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
+      <c r="A2" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
       <c r="T2" s="38"/>
     </row>
     <row r="3" spans="1:31" ht="15.75" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
       <c r="T3" s="38"/>
     </row>
     <row r="4" spans="1:31" ht="25.5" customHeight="1">
@@ -1228,27 +1245,27 @@
       <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="1:31" ht="15.75">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="60"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
+      <c r="S9" s="60"/>
       <c r="T9" s="39"/>
       <c r="V9" s="7"/>
       <c r="W9" s="35"/>
@@ -1487,6 +1504,11 @@
       </c>
     </row>
     <row r="13" spans="1:31">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="V13" s="6" t="s">
         <v>15</v>
       </c>
@@ -1494,22 +1516,58 @@
         <v>26</v>
       </c>
       <c r="X13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53" t="s">
+        <v>104</v>
+      </c>
+    </row>
     <row r="15" spans="1:31">
-      <c r="Z15" s="6" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="Z18" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="AA15" s="15" t="s">
+      <c r="AA18" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="22:22">
-      <c r="V17" s="16" t="s">
+    <row r="20" spans="1:27">
+      <c r="V20" s="16" t="s">
         <v>27</v>
       </c>
     </row>
